--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-3.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-3.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CV Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Empty Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,14 +476,14 @@
         <v>0.716</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>9.74415362787645</v>
+        <v>9.742426748209876</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-7.710618814742237</v>
+        <v>-7.710618814742499</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.718</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>9.589597423313794</v>
+        <v>9.589597423314117</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-7.548691203485644</v>
+        <v>-7.548691203485899</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.72</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>9.338065186352365</v>
+        <v>9.338065186352679</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-7.341395429321276</v>
+        <v>-7.341395429321521</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.721</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>9.024600972572848</v>
+        <v>9.02460097257315</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.511</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-7.078580493480634</v>
+        <v>-7.078580493480869</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.72</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>8.628172431024751</v>
+        <v>8.628172431025042</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.513</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-6.759733020938431</v>
+        <v>-6.759733020938664</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.72</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.175305090616058</v>
+        <v>8.175305090616328</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.515</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-6.412535419989227</v>
+        <v>-6.412535419989443</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.719</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7.710828509451598</v>
+        <v>7.710828509451856</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.517</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-6.070073650053027</v>
+        <v>-6.07007365005323</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.718</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7.276494786648533</v>
+        <v>7.27649478664878</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.519</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-5.747397737123423</v>
+        <v>-5.747397737123613</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.716</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>6.882142849850142</v>
+        <v>6.882142849850374</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.521</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-5.439427551544688</v>
+        <v>-5.439427551544869</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.715</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>6.505496745924082</v>
+        <v>6.505496745924297</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.523</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-5.143416533370081</v>
+        <v>-5.143416533370252</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.714</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>6.141480654663987</v>
+        <v>6.141480654664194</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.524</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-4.845688177462125</v>
+        <v>-4.845688177462292</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.712</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>5.795854529612916</v>
+        <v>5.795854529613113</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.526</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-4.570764643650464</v>
+        <v>-4.570764643650622</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.71</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>5.479136702916094</v>
+        <v>5.479136702916277</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.528</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-4.319920801698271</v>
+        <v>-4.319920801698415</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.708</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>5.192983749235623</v>
+        <v>5.1929837492358</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.529</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-4.088338349442433</v>
+        <v>-4.088338349442572</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.706</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4.929866697834308</v>
+        <v>4.929866697834473</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.531</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-3.880210007544719</v>
+        <v>-3.880210007544849</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.705</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4.697509764925592</v>
+        <v>4.697509764925749</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.532</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-3.69190070023924</v>
+        <v>-3.691900700239364</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.703</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4.482337388879215</v>
+        <v>4.482337388879368</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.533</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-3.511672062394429</v>
+        <v>-3.511672062394546</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.702</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4.273529013009639</v>
+        <v>4.273529013009783</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.535</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-3.337474836641364</v>
+        <v>-3.337474836641475</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.7</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>4.067814587658598</v>
+        <v>4.067814587658735</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.536</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-3.174345659786686</v>
+        <v>-3.174345659786793</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.699</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>3.882871308945795</v>
+        <v>3.882871308945927</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.537</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-3.029524259630329</v>
+        <v>-3.029524259630432</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.698</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>3.71747006337354</v>
+        <v>3.717470063373665</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.538</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-2.896380729109189</v>
+        <v>-2.896380729109287</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.697</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>3.566422375368124</v>
+        <v>3.566422375368243</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.539</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-2.772443136401778</v>
+        <v>-2.772443136401871</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.696</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>3.424299600633219</v>
+        <v>3.424299600633335</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.539</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-2.657719716558683</v>
+        <v>-2.657719716558772</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.695</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>3.292480510812802</v>
+        <v>3.292480510812911</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.54</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-2.548810544409967</v>
+        <v>-2.548810544410053</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.694</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>3.163838028660056</v>
+        <v>3.163838028660162</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.541</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-2.443683251076396</v>
+        <v>-2.443683251076479</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>3.04184298386375</v>
+        <v>3.041842983863853</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.542</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-2.344049937709088</v>
+        <v>-2.344049937709168</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>2.923983742715111</v>
+        <v>2.92398374271521</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.543</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-2.239374187057172</v>
+        <v>-2.239374187057246</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>2.794848274925286</v>
+        <v>2.794848274925379</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.544</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-2.122187380076559</v>
+        <v>-2.12218738007663</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>2.652301370410495</v>
+        <v>2.652301370410585</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.544</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-2.002120444735571</v>
+        <v>-2.002120444735639</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>2.5131991602684</v>
+        <v>2.513199160268485</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.545</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-1.891017987154433</v>
+        <v>-1.891017987154495</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.6889999999999999</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>2.383724784878289</v>
+        <v>2.38372478487837</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.546</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-1.787142277000149</v>
+        <v>-1.78714227700021</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>2.264357580309276</v>
+        <v>2.264357580309351</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.547</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1.687386344869037</v>
+        <v>-1.687386344869092</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.6860000000000001</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>2.148362871009114</v>
+        <v>2.148362871009187</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.548</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-1.591239105583062</v>
+        <v>-1.591239105583116</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.6870000000000001</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>2.036307931489991</v>
+        <v>2.036307931490059</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.548</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-1.496393362286705</v>
+        <v>-1.496393362286755</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>1.923389974632013</v>
+        <v>1.923389974632077</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.549</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-1.39850842352477</v>
+        <v>-1.398508423524818</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.6840000000000001</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>1.811170685313952</v>
+        <v>1.811170685314013</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.551</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-1.307736969631802</v>
+        <v>-1.307736969631847</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.6840000000000001</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>1.703552721124209</v>
+        <v>1.703552721124265</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.552</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-1.217267313271041</v>
+        <v>-1.217267313271081</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>1.599082653650238</v>
+        <v>1.599082653650292</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.552</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-1.133289272205748</v>
+        <v>-1.133289272205785</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>1.501304048589938</v>
+        <v>1.501304048589988</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.552</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-1.050870717021434</v>
+        <v>-1.05087071702147</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>1.404556093980933</v>
+        <v>1.40455609398098</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.553</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-0.9745898981663117</v>
+        <v>-0.9745898981663453</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>1.316348308325859</v>
+        <v>1.316348308325903</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.553</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-0.9052013680768632</v>
+        <v>-0.9052013680768939</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>1.234227237666113</v>
+        <v>1.234227237666154</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.554</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-0.8413311512669761</v>
+        <v>-0.8413311512670041</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.681</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>1.156603358146869</v>
+        <v>1.156603358146909</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.554</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-0.778306755079786</v>
+        <v>-0.7783067550798126</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.68</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>1.081300311617877</v>
+        <v>1.081300311617914</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.555</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-0.7194901727714069</v>
+        <v>-0.7194901727714311</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.68</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>1.009296376122337</v>
+        <v>1.009296376122371</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.556</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-0.664498006090252</v>
+        <v>-0.6644980060902748</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.68</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.9419652394802671</v>
+        <v>0.9419652394802989</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.556</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-0.6107825151160904</v>
+        <v>-0.6107825151161108</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.679</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.8725228775890582</v>
+        <v>0.872522877589087</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.5570000000000001</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-0.5528333683491322</v>
+        <v>-0.5528333683491506</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.679</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.8030343017431214</v>
+        <v>0.8030343017431485</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.5570000000000001</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-0.5001890257045658</v>
+        <v>-0.5001890257045833</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-3.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-3.xlsx
@@ -447,23 +447,23 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Potential (V)</t>
+          <t>Reduction Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Current (uAmps)</t>
+          <t>Reduction Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
@@ -473,17 +473,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.716</v>
+        <v>0.715</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>9.742426748209876</v>
+        <v>9.758638728958726</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-7.710618814742499</v>
+        <v>7.686906074383936</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.718</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>9.589597423314117</v>
+        <v>9.600356660102387</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>0.508</v>
+        <v>0.506</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-7.548691203485899</v>
+        <v>7.539719321468733</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.72</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>9.338065186352679</v>
+        <v>9.356364364105533</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
-        <v>0.509</v>
+        <v>0.507</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-7.341395429321521</v>
+        <v>7.35565711819594</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.721</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>9.02460097257315</v>
+        <v>9.039882319683826</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
-        <v>0.511</v>
+        <v>0.509</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-7.078580493480869</v>
+        <v>7.08153631651914</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -549,17 +549,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>8.628172431025042</v>
+        <v>8.645394836093383</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
-        <v>0.513</v>
+        <v>0.511</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-6.759733020938664</v>
+        <v>6.774593337654113</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -568,17 +568,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.175305090616328</v>
+        <v>8.207662648298985</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
-        <v>0.515</v>
+        <v>0.513</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-6.412535419989443</v>
+        <v>6.431344345483326</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -587,17 +587,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7.710828509451856</v>
+        <v>7.73237942277253</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.517</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-6.07007365005323</v>
+        <v>6.087854492210333</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -606,17 +606,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.718</v>
+        <v>0.719</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7.27649478664878</v>
+        <v>7.278707465553929</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
-        <v>0.519</v>
+        <v>0.518</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-5.747397737123613</v>
+        <v>5.767895812626465</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.716</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>6.882142849850374</v>
+        <v>6.858623776345049</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
-        <v>0.521</v>
+        <v>0.52</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-5.439427551544869</v>
+        <v>5.44686848566899</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.715</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>6.505496745924297</v>
+        <v>6.516599503231771</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
-        <v>0.523</v>
+        <v>0.522</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-5.143416533370252</v>
+        <v>5.170081314391394</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -663,17 +663,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.714</v>
+        <v>0.713</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>6.141480654664194</v>
+        <v>6.150001594208146</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.524</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-4.845688177462292</v>
+        <v>4.864539216684521</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.712</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>5.795854529613113</v>
+        <v>5.805652491719636</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.526</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-4.570764643650622</v>
+        <v>4.605955816231077</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.71</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>5.479136702916277</v>
+        <v>5.487906377088994</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
-        <v>0.528</v>
+        <v>0.527</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-4.319920801698415</v>
+        <v>4.353175994497906</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.708</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>5.1929837492358</v>
+        <v>5.185777278981143</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.529</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-4.088338349442572</v>
+        <v>4.121545808728635</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.706</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4.929866697834473</v>
+        <v>4.955780428990234</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
-        <v>0.531</v>
+        <v>0.53</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-3.880210007544849</v>
+        <v>3.915200204022473</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.705</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4.697509764925749</v>
+        <v>4.714024648134514</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
-        <v>0.532</v>
+        <v>0.531</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-3.691900700239364</v>
+        <v>3.731043680184885</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.703</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4.482337388879368</v>
+        <v>4.512003581665163</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.533</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-3.511672062394546</v>
+        <v>3.54012256823115</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.702</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4.273529013009783</v>
+        <v>4.273076360185931</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
-        <v>0.535</v>
+        <v>0.534</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-3.337474836641475</v>
+        <v>3.368759168545187</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -815,17 +815,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>4.067814587658735</v>
+        <v>4.091915963630546</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
-        <v>0.536</v>
+        <v>0.535</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-3.174345659786793</v>
+        <v>3.21560208783758</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -834,17 +834,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.699</v>
+        <v>0.7</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>3.882871308945927</v>
+        <v>3.893331622534611</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
-        <v>0.537</v>
+        <v>0.536</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-3.029524259630432</v>
+        <v>3.072377065045192</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.698</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>3.717470063373665</v>
+        <v>3.738592029624511</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
-        <v>0.538</v>
+        <v>0.537</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-2.896380729109287</v>
+        <v>2.924458852036692</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -872,17 +872,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.697</v>
+        <v>0.698</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>3.566422375368243</v>
+        <v>3.580936324277038</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
-        <v>0.539</v>
+        <v>0.537</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-2.772443136401871</v>
+        <v>2.802536806376837</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -891,17 +891,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.696</v>
+        <v>0.697</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>3.424299600633335</v>
+        <v>3.436174026804737</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
-        <v>0.539</v>
+        <v>0.538</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-2.657719716558772</v>
+        <v>2.670873010681215</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -910,17 +910,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.695</v>
+        <v>0.696</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>3.292480510812911</v>
+        <v>3.329197886529482</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
-        <v>0.54</v>
+        <v>0.539</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-2.548810544410053</v>
+        <v>2.556610855620291</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -929,17 +929,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.694</v>
+        <v>0.695</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>3.163838028660162</v>
+        <v>3.174351952861458</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
-        <v>0.541</v>
+        <v>0.54</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-2.443683251076479</v>
+        <v>2.458981789635617</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -948,17 +948,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>3.041842983863853</v>
+        <v>3.052156395688888</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-2.344049937709168</v>
+        <v>2.364601301175854</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>2.92398374271521</v>
+        <v>2.924784220068465</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
-        <v>0.543</v>
+        <v>0.541</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-2.239374187057246</v>
+        <v>2.275727595153757</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>2.794848274925379</v>
+        <v>2.79489206017567</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
-        <v>0.544</v>
+        <v>0.542</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-2.12218738007663</v>
+        <v>2.159603741473273</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>2.652301370410585</v>
+        <v>2.657589872953434</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
-        <v>0.544</v>
+        <v>0.543</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-2.002120444735639</v>
+        <v>2.034254479514236</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1024,17 +1024,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>2.513199160268485</v>
+        <v>2.531723288153581</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
-        <v>0.545</v>
+        <v>0.544</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-1.891017987154495</v>
+        <v>1.925232462946446</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1043,17 +1043,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>2.38372478487837</v>
+        <v>2.396941984520508</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
-        <v>0.546</v>
+        <v>0.545</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-1.78714227700021</v>
+        <v>1.832339103887142</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1062,17 +1062,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>2.264357580309351</v>
+        <v>2.311549177442073</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
-        <v>0.547</v>
+        <v>0.545</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1.687386344869092</v>
+        <v>1.716559712871692</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1081,17 +1081,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>2.148362871009187</v>
+        <v>2.142824567611559</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
-        <v>0.548</v>
+        <v>0.546</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-1.591239105583116</v>
+        <v>1.619954558317133</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1100,17 +1100,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>2.036307931490059</v>
+        <v>2.048241747386347</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
-        <v>0.548</v>
+        <v>0.547</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-1.496393362286755</v>
+        <v>1.520108864346656</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1119,17 +1119,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>1.923389974632077</v>
+        <v>1.945498360254175</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
-        <v>0.549</v>
+        <v>0.548</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-1.398508423524818</v>
+        <v>1.41352184792749</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1138,17 +1138,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>1.811170685314013</v>
+        <v>1.819499572447658</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
-        <v>0.551</v>
+        <v>0.548</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-1.307736969631847</v>
+        <v>1.317242924742319</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1157,17 +1157,17 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>1.703552721124265</v>
+        <v>1.717489294182723</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
-        <v>0.552</v>
+        <v>0.549</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-1.217267313271081</v>
+        <v>1.223104845716011</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1176,17 +1176,17 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>1.599082653650292</v>
+        <v>1.615442103602728</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
-        <v>0.552</v>
+        <v>0.55</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-1.133289272205785</v>
+        <v>1.139951707458141</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>1.501304048589988</v>
+        <v>1.495354294996132</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
-        <v>0.552</v>
+        <v>0.551</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-1.05087071702147</v>
+        <v>1.067764763232166</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1214,17 +1214,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>1.40455609398098</v>
+        <v>1.41680468604982</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
-        <v>0.553</v>
+        <v>0.551</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-0.9745898981663453</v>
+        <v>0.9921733461675091</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>1.316348308325903</v>
+        <v>1.325116123721782</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
-        <v>0.553</v>
+        <v>0.551</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-0.9052013680768939</v>
+        <v>0.9331341368797561</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>1.234227237666154</v>
+        <v>1.237779221653893</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
-        <v>0.554</v>
+        <v>0.552</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-0.8413311512670041</v>
+        <v>0.8727792416157958</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1271,17 +1271,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.681</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>1.156603358146909</v>
+        <v>1.156993627319054</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
-        <v>0.554</v>
+        <v>0.553</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-0.7783067550798126</v>
+        <v>0.8051548482650752</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1290,17 +1290,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.68</v>
+        <v>0.681</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>1.081300311617914</v>
+        <v>1.085327511510949</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
-        <v>0.555</v>
+        <v>0.553</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-0.7194901727714311</v>
+        <v>0.744494652199674</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1309,17 +1309,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.68</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>1.009296376122371</v>
+        <v>1.023545877550378</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
-        <v>0.556</v>
+        <v>0.554</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-0.6644980060902748</v>
+        <v>0.6901636480073998</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1328,17 +1328,17 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.68</v>
+        <v>0.681</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.9419652394802989</v>
+        <v>0.9488792619573868</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
-        <v>0.556</v>
+        <v>0.554</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-0.6107825151161108</v>
+        <v>0.6361817987963854</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1347,17 +1347,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.679</v>
+        <v>0.681</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.872522877589087</v>
+        <v>0.8750313842875815</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-0.5528333683491506</v>
+        <v>0.5771784312984732</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.679</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.8030343017431485</v>
+        <v>0.8203361858424503</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.5570000000000001</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-0.5001890257045833</v>
+        <v>0.5061968166510855</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-3.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-3.xlsx
@@ -476,14 +476,14 @@
         <v>0.715</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>9.758638728958726</v>
+        <v>9.762245197555234</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
-        <v>0.507</v>
+        <v>0.505</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.686906074383936</v>
+        <v>7.71188022851966</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.718</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>9.600356660102387</v>
+        <v>9.609205254067632</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.506</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.539719321468733</v>
+        <v>7.554407749625733</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.72</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>9.356364364105533</v>
+        <v>9.349959786740841</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.35565711819594</v>
+        <v>7.345783946394588</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.721</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>9.039882319683826</v>
+        <v>9.045159886182725</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.08153631651914</v>
+        <v>7.08580854041046</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.721</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>8.645394836093383</v>
+        <v>8.651151916923872</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.511</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.774593337654113</v>
+        <v>6.778232941042566</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.721</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.207662648298985</v>
+        <v>8.20827518133934</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.513</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.431344345483326</v>
+        <v>6.435905106084433</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.72</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7.73237942277253</v>
+        <v>7.729299710491696</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
-        <v>0.517</v>
+        <v>0.516</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.087854492210333</v>
+        <v>6.09627571777528</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.719</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7.278707465553929</v>
+        <v>7.288057450690906</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.518</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.767895812626465</v>
+        <v>5.774044986314606</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.716</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>6.858623776345049</v>
+        <v>6.902568054120574</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.52</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.44686848566899</v>
+        <v>5.464060531231619</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.715</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>6.516599503231771</v>
+        <v>6.521962581576554</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.522</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.170081314391394</v>
+        <v>5.175423142222041</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.713</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>6.150001594208146</v>
+        <v>6.156282612058847</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.524</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.864539216684521</v>
+        <v>4.877545060498094</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.712</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>5.805652491719636</v>
+        <v>5.806954230692517</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.526</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.605955816231077</v>
+        <v>4.605131540676547</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.71</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>5.487906377088994</v>
+        <v>5.489985486453356</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.527</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.353175994497906</v>
+        <v>4.355754683710602</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.708</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>5.185777278981143</v>
+        <v>5.206125787961572</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.529</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.121545808728635</v>
+        <v>4.124218472787546</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.706</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4.955780428990234</v>
+        <v>4.947060584020491</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.53</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.915200204022473</v>
+        <v>3.920362837594942</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.705</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4.714024648134514</v>
+        <v>4.721402909700313</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.531</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.731043680184885</v>
+        <v>3.734390695946115</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.703</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4.512003581665163</v>
+        <v>4.507128024697467</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.533</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.54012256823115</v>
+        <v>3.553474447883374</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.702</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4.273076360185931</v>
+        <v>4.287392361531763</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.534</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.368759168545187</v>
+        <v>3.379197622402918</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.701</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>4.091915963630546</v>
+        <v>4.089184564762148</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.535</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.21560208783758</v>
+        <v>3.217784613918093</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.7</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>3.893331622534611</v>
+        <v>3.897149268733085</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.536</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.072377065045192</v>
+        <v>3.071425080402451</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.698</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>3.738592029624511</v>
+        <v>3.730859916147168</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.537</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.924458852036692</v>
+        <v>2.933749469881598</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.698</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>3.580936324277038</v>
+        <v>3.582148122672594</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.537</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.802536806376837</v>
+        <v>2.812415564981324</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.697</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>3.436174026804737</v>
+        <v>3.440558529463409</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.538</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.670873010681215</v>
+        <v>2.691880780296374</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.696</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>3.329197886529482</v>
+        <v>3.317053912565202</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.539</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.556610855620291</v>
+        <v>2.579275297298971</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.695</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>3.174351952861458</v>
+        <v>3.181702223918006</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.54</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.458981789635617</v>
+        <v>2.473021142656162</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.694</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>3.052156395688888</v>
+        <v>3.058022040323077</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.54</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.364601301175854</v>
+        <v>2.373127458936952</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>2.924784220068465</v>
+        <v>2.93885884254161</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.541</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.275727595153757</v>
+        <v>2.27448132415412</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>2.79489206017567</v>
+        <v>2.79760043722323</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.542</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.159603741473273</v>
+        <v>2.154354526769642</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>2.657589872953434</v>
+        <v>2.664070560794025</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.543</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.034254479514236</v>
+        <v>2.036831678290343</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>2.531723288153581</v>
+        <v>2.528942299726564</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.544</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.925232462946446</v>
+        <v>1.926457111249073</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>2.396941984520508</v>
+        <v>2.398983838609154</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.545</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.832339103887142</v>
+        <v>1.82306677650734</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1062,17 +1062,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>2.311549177442073</v>
+        <v>2.28017950261853</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.545</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.716559712871692</v>
+        <v>1.71647665526249</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>2.142824567611559</v>
+        <v>2.15697920498734</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.546</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.619954558317133</v>
+        <v>1.620401770372923</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>2.048241747386347</v>
+        <v>2.049883000245345</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.547</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.520108864346656</v>
+        <v>1.525418840716731</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>1.945498360254175</v>
+        <v>1.939134550414659</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.548</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.41352184792749</v>
+        <v>1.421000630367779</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.6860000000000001</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>1.819499572447658</v>
+        <v>1.825634668233943</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.548</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.317242924742319</v>
+        <v>1.327809625408322</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>1.717489294182723</v>
+        <v>1.718722204407482</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.549</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.223104845716011</v>
+        <v>1.232593802886642</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>1.615442103602728</v>
+        <v>1.611922753348622</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.55</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.139951707458141</v>
+        <v>1.149931470436772</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>1.495354294996132</v>
+        <v>1.508490131886793</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.551</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.067764763232166</v>
+        <v>1.072079211869914</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>1.41680468604982</v>
+        <v>1.413512683613523</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.551</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>0.9921733461675091</v>
+        <v>0.997788344812866</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>1.325116123721782</v>
+        <v>1.323977087990753</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
-        <v>0.551</v>
+        <v>0.552</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>0.9331341368797561</v>
+        <v>0.9297444021139644</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>1.237779221653893</v>
+        <v>1.241373346625193</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.552</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>0.8727792416157958</v>
+        <v>0.867493592251685</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>1.156993627319054</v>
+        <v>1.160042128428801</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.553</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>0.8051548482650752</v>
+        <v>0.8028917961871377</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.681</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>1.085327511510949</v>
+        <v>1.087740442516433</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.553</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>0.744494652199674</v>
+        <v>0.7423982206364236</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1309,17 +1309,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>1.023545877550378</v>
+        <v>1.018759988895414</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.554</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>0.6901636480073998</v>
+        <v>0.6898872520420668</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.681</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.9488792619573868</v>
+        <v>0.9513482808109076</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.554</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>0.6361817987963854</v>
+        <v>0.6337194801387396</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.681</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.8750313842875815</v>
+        <v>0.8834215715101561</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.556</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>0.5771784312984732</v>
+        <v>0.5727092665450851</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.679</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.8203361858424503</v>
+        <v>0.8194652916106342</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.5570000000000001</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>0.5061968166510855</v>
+        <v>0.5146434589234852</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
